--- a/houtai/base/biz/main/src/main/resources/static/file/防疫市局统计表.xlsx
+++ b/houtai/base/biz/main/src/main/resources/static/file/防疫市局统计表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23480" windowHeight="15940"/>
+    <workbookView windowHeight="15340"/>
   </bookViews>
   <sheets>
     <sheet name=" 番禺分局  队伍内部防疫工作情况统计表" sheetId="5" r:id="rId1"/>
@@ -131,10 +131,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -182,13 +182,47 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="9"/>
+      <color indexed="16"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="10"/>
+      <color indexed="19"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -202,35 +236,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="62"/>
+      <color indexed="63"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
+      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -243,7 +255,27 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="17"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="53"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -255,41 +287,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color indexed="16"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="53"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="19"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
+      <color indexed="20"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -321,43 +321,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
+        <fgColor indexed="31"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,13 +339,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="31"/>
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="23"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,18 +406,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="54"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="23"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="44"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,6 +500,17 @@
       <right/>
       <top/>
       <bottom style="thick">
+        <color indexed="44"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="54"/>
+      </top>
+      <bottom style="double">
         <color indexed="54"/>
       </bottom>
       <diagonal/>
@@ -508,8 +519,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color indexed="22"/>
+      <bottom style="thick">
+        <color indexed="54"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,6 +536,15 @@
       </top>
       <bottom style="thin">
         <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,26 +579,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="44"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="54"/>
-      </top>
-      <bottom style="double">
-        <color indexed="54"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="23"/>
       </left>
@@ -598,145 +598,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1125,7 +1125,7 @@
   <sheetPr/>
   <dimension ref="A1:BG55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
@@ -1141,7 +1141,7 @@
     <col min="24" max="28" width="5.625" style="1" customWidth="1"/>
     <col min="29" max="29" width="8.375" style="1" customWidth="1"/>
     <col min="30" max="32" width="5.625" style="1" customWidth="1"/>
-    <col min="33" max="33" width="89.625" style="1" customWidth="1"/>
+    <col min="33" max="33" width="116.788461538462" style="1" customWidth="1"/>
     <col min="34" max="34" width="41.625" style="2" customWidth="1"/>
     <col min="35" max="35" width="4.875" style="3" customWidth="1"/>
     <col min="36" max="16384" width="9" style="3"/>
